--- a/doc/04_機能一覧_チーム天然水.xlsx
+++ b/doc/04_機能一覧_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54192FAE-5307-46F6-A93D-C581F0AC7414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20471B11-F14F-45C3-8B80-42BB19BEE8F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -314,80 +314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主要食材ボタンをクリックすることで冷蔵庫内の食材個数を変更する</t>
-    <rPh sb="0" eb="4">
-      <t>シュヨウショクザイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>ショクザイコスウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食材個数編集機能</t>
-    <rPh sb="0" eb="8">
-      <t>ショクザイコスウヘンシュウキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冷蔵庫内の個数をクリックすることで、食材の個数を変更することが出来る</t>
-    <rPh sb="0" eb="4">
-      <t>レイゾウコナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食材のキーワード登録</t>
-    <rPh sb="0" eb="2">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冷蔵庫内のテキストボックスにユーザーが主要食材以外の食材を手動で追加できる</t>
-    <rPh sb="0" eb="4">
-      <t>レイゾウコナイ</t>
-    </rPh>
-    <rPh sb="19" eb="25">
-      <t>シュヨウショクザイイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン・ログアウト機能</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,6 +489,185 @@
   </si>
   <si>
     <t>WK003</t>
+  </si>
+  <si>
+    <t>ユーザー情報編集</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WU002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが登録した情報を編集、削除することが出来る</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材個数編集機能</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="10">
+      <t>ショクザイコスウヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他食材のキーワード登録</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫内の個数をクリックすることで、主要食材の個数を変更することが出来る</t>
+    <rPh sb="0" eb="4">
+      <t>レイゾウコナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要食材ボタンをクリックすることで冷蔵庫内の主要食材個数を変更する</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ショクザイコスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵庫内のテキストボックスにユーザーがその他食材の食材を手動で追加できる</t>
+    <rPh sb="0" eb="4">
+      <t>レイゾウコナイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>タショクザイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ使用時食材在庫管理機能</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="6" eb="14">
+      <t>ショクザイザイコカンリキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WL003</t>
+  </si>
+  <si>
+    <t>レシピを使用するをクリックした際、冷蔵庫の主要食材の個数がレシピ内容より少ない場合、警告を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報編集・削除</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -658,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,25 +785,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1148,7 @@
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="35" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
   </cols>
@@ -1061,45 +1157,45 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>45085</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1119,7 +1215,7 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1143,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1167,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1180,7 +1276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1188,17 +1284,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1212,17 +1308,17 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1239,14 +1335,14 @@
         <v>21</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="11" t="s">
-        <v>44</v>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1263,20 +1359,20 @@
         <v>21</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="11" t="s">
-        <v>46</v>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1284,17 +1380,17 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="11" t="s">
-        <v>34</v>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -1308,17 +1404,17 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="11" t="s">
-        <v>20</v>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -1332,17 +1428,17 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="11" t="s">
-        <v>50</v>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -1356,23 +1452,23 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="11" t="s">
-        <v>52</v>
+      <c r="F17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
@@ -1380,23 +1476,23 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="11" t="s">
-        <v>55</v>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1404,17 +1500,17 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="11" t="s">
-        <v>57</v>
+      <c r="F19" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
@@ -1428,17 +1524,17 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="11" t="s">
-        <v>59</v>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -1446,171 +1542,219 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/04_機能一覧_チーム天然水.xlsx
+++ b/doc/04_機能一覧_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20471B11-F14F-45C3-8B80-42BB19BEE8F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F4E9A8-D567-47A0-AD3D-4425B44DF672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,25 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーが登録した情報を編集、削除することが出来る</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主要食材個数編集機能</t>
     <rPh sb="0" eb="2">
       <t>シュヨウ</t>
@@ -666,6 +647,25 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが登録した情報をユーザーが編集、削除することが出来る</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1288,13 +1288,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
@@ -1342,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -1360,13 +1360,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>30</v>
@@ -1384,13 +1384,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
@@ -1456,13 +1456,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>

--- a/doc/04_機能一覧_チーム天然水.xlsx
+++ b/doc/04_機能一覧_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F4E9A8-D567-47A0-AD3D-4425B44DF672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB1531-1E4E-40B9-885A-FC71728662E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_機能一覧_チーム天然水.xlsx
+++ b/doc/04_機能一覧_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB1531-1E4E-40B9-885A-FC71728662E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DC008B-7698-4643-A26D-EB2FA612D5AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -382,22 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自炊費と外食費の差額を合計し週、月ごとに表示する</t>
-    <rPh sb="11" eb="13">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者機能</t>
     <rPh sb="0" eb="5">
       <t>カンリシャキノウ</t>
@@ -601,43 +585,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WL003</t>
-  </si>
-  <si>
-    <t>レシピを使用するをクリックした際、冷蔵庫の主要食材の個数がレシピ内容より少ない場合、警告を表示する</t>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>シュヨウショクザイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー情報編集・削除</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -667,6 +614,90 @@
     <rPh sb="27" eb="29">
       <t>デキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピを使用するをクリックした際、冷蔵庫の主要食材からレシピで使用する分消費する。その際の冷蔵庫にある主要食材の個数がレシピ内容より少ない場合、警告を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>レイゾウコ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自炊費と外食費の差額を合計し週、月ごとに表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ使用回数リセット機能</t>
+    <rPh sb="3" eb="7">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをクリックした際に、レシピの使用回数をリセットする</t>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>シヨウカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WL004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WK004</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1135,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1288,19 +1319,19 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1308,17 +1339,17 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>30</v>
@@ -1332,23 +1363,23 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1360,10 +1391,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>64</v>
@@ -1384,19 +1415,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1404,17 +1435,17 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>30</v>
@@ -1428,17 +1459,17 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>30</v>
@@ -1452,17 +1483,17 @@
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -1476,17 +1507,17 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>30</v>
@@ -1504,19 +1535,19 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>13</v>
       </c>
@@ -1524,17 +1555,17 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>30</v>
@@ -1548,17 +1579,17 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>30</v>
@@ -1572,17 +1603,17 @@
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>30</v>
@@ -1592,17 +1623,29 @@
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1614,7 +1657,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1626,7 +1669,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1638,7 +1681,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1650,7 +1693,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1662,7 +1705,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1674,7 +1717,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1686,7 +1729,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1698,7 +1741,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1710,7 +1753,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1722,7 +1765,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1734,7 +1777,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1746,7 +1789,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1755,6 +1798,18 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
